--- a/_Format/pno_example.xlsx
+++ b/_Format/pno_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leong.chen\Desktop\ppe\doCSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ppe\_Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>料號</t>
   </si>
@@ -66,51 +66,15 @@
     <t>2023-11-27 10:21:00</t>
   </si>
   <si>
-    <t>part_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pno_remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cata_SN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updated_at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updated_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>範例</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -121,12 +85,6 @@
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -162,9 +120,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -473,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,88 +448,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3">
-        <v>2023</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/_Format/pno_example.xlsx
+++ b/_Format/pno_example.xlsx
@@ -33,9 +33,6 @@
     <t>年度/單價NT$</t>
   </si>
   <si>
-    <t>統器材編號編</t>
-  </si>
-  <si>
     <t>尺寸</t>
   </si>
   <si>
@@ -68,13 +65,17 @@
   <si>
     <t>範例</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>器材編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -92,6 +93,13 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -120,12 +128,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -447,7 +456,7 @@
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -460,47 +469,47 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2">
         <v>2023</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/_Format/pno_example.xlsx
+++ b/_Format/pno_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ppe\_Format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leong.chen\Desktop\ppe\2502需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>料號</t>
   </si>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>器材編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,12 +455,12 @@
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="6" max="7" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -476,16 +480,19 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -502,13 +509,16 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
